--- a/期中测试/北上广深数据分析报告表.xlsx
+++ b/期中测试/北上广深数据分析报告表.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="18288" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
   <si>
     <t>北上广深广告策划薪资对比表</t>
   </si>
@@ -25,85 +38,97 @@
     <t>平均薪资</t>
   </si>
   <si>
+    <t>单位：k</t>
+  </si>
+  <si>
+    <t>上海-嘉定区</t>
+  </si>
+  <si>
+    <t>深圳-光明区</t>
+  </si>
+  <si>
+    <t>广州-增城区</t>
+  </si>
+  <si>
+    <t>北京-朝阳区</t>
+  </si>
+  <si>
+    <t>上海-奉贤区</t>
+  </si>
+  <si>
+    <t>深圳-南山区</t>
+  </si>
+  <si>
+    <t>广州-天河区</t>
+  </si>
+  <si>
+    <t>北京-海淀区</t>
+  </si>
+  <si>
     <t>上海-徐汇区</t>
   </si>
   <si>
-    <t>深圳-南山区</t>
-  </si>
-  <si>
-    <t>广州-从化区</t>
-  </si>
-  <si>
-    <t>北京-朝阳区</t>
+    <t>深圳-宝安区</t>
+  </si>
+  <si>
+    <t>广州-海珠区</t>
+  </si>
+  <si>
+    <t>北京-西城区</t>
   </si>
   <si>
     <t>上海-普陀区</t>
   </si>
   <si>
-    <t>深圳-宝安区</t>
-  </si>
-  <si>
-    <t>广州-增城区</t>
-  </si>
-  <si>
-    <t>北京-海淀区</t>
-  </si>
-  <si>
-    <t>上海-杨浦区</t>
-  </si>
-  <si>
     <t>深圳-福田区</t>
   </si>
   <si>
-    <t>广州-天河区</t>
-  </si>
-  <si>
-    <t>北京-西城区</t>
+    <t>广州-番禺区</t>
+  </si>
+  <si>
+    <t>北京-通州区</t>
+  </si>
+  <si>
+    <t>上海-松江区</t>
+  </si>
+  <si>
+    <t>深圳-罗湖区</t>
+  </si>
+  <si>
+    <t>广州-白云区</t>
   </si>
   <si>
     <t>上海-浦东新区</t>
   </si>
   <si>
-    <t>深圳-龙华区</t>
-  </si>
-  <si>
-    <t>广州-海珠区</t>
-  </si>
-  <si>
-    <t>北京-通州区</t>
-  </si>
-  <si>
-    <t>上海-虹口区</t>
-  </si>
-  <si>
     <t>深圳-龙岗区</t>
   </si>
   <si>
-    <t>广州-番禺区</t>
+    <t>广州-花都区</t>
   </si>
   <si>
     <t>上海-长宁区</t>
   </si>
   <si>
-    <t>广州-白云区</t>
+    <t>广州-越秀区</t>
   </si>
   <si>
     <t>上海-闵行区</t>
   </si>
   <si>
-    <t>广州-荔湾区</t>
+    <t>广州-黄埔区</t>
+  </si>
+  <si>
+    <t>上海-青浦区</t>
   </si>
   <si>
     <t>上海-静安区</t>
   </si>
   <si>
-    <t>广州-越秀区</t>
-  </si>
-  <si>
     <t>上海-黄浦区</t>
   </si>
   <si>
-    <t>广州-黄埔区</t>
+    <t>结论：广告策划岗位的平均薪资：北京&gt;广州&gt;上海&gt;深圳</t>
   </si>
   <si>
     <t>上海广告策划平均薪资：</t>
@@ -112,9 +137,6 @@
     <t>深圳广告策划平均薪资：</t>
   </si>
   <si>
-    <t>结论：广告策划岗位的平均薪资：北京&gt;深圳&gt;上海&gt;广州</t>
-  </si>
-  <si>
     <t>广州广告策划平均薪资：</t>
   </si>
   <si>
@@ -127,31 +149,31 @@
     <t>学历要求</t>
   </si>
   <si>
-    <t>样本总数:121</t>
-  </si>
-  <si>
-    <t>样本总数:242</t>
+    <t>岗位个数</t>
   </si>
   <si>
     <t>北京</t>
   </si>
   <si>
+    <t>中专/中技</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>大专</t>
+  </si>
+  <si>
+    <t>学历不限</t>
+  </si>
+  <si>
+    <t>本科</t>
+  </si>
+  <si>
     <t>统招本科</t>
   </si>
   <si>
-    <t>上海</t>
-  </si>
-  <si>
-    <t>硕士</t>
-  </si>
-  <si>
-    <t>博士</t>
-  </si>
-  <si>
-    <t>样本总数:117</t>
-  </si>
-  <si>
-    <t>样本总数:119</t>
+    <t>结论：广告策划岗位对学历要求不高，对经验要求更高，基于此数据，建议早点就业</t>
   </si>
   <si>
     <t>广州</t>
@@ -160,41 +182,41 @@
     <t>深圳</t>
   </si>
   <si>
-    <t>结论：广告策划岗位对学历要求不高，对经验要求更高，基于此数据，建议早点就业</t>
-  </si>
-  <si>
     <t>北上广深广告策划经验要求对比表</t>
   </si>
   <si>
     <t>经验要求</t>
   </si>
   <si>
+    <t>1-3年</t>
+  </si>
+  <si>
+    <t>10年以上</t>
+  </si>
+  <si>
+    <t>3-5年</t>
+  </si>
+  <si>
+    <t>5-10年</t>
+  </si>
+  <si>
     <t>经验不限</t>
   </si>
   <si>
-    <t>1-3年</t>
-  </si>
-  <si>
-    <t>3-5年</t>
-  </si>
-  <si>
-    <t>5-10年</t>
-  </si>
-  <si>
-    <t>10年以上</t>
+    <t>一年以下</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +234,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -712,137 +749,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -853,17 +890,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1000,7 +1039,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$13:$A$16</c:f>
+              <c:f>Sheet1!$A$15:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1020,7 +1059,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$B$16</c:f>
+              <c:f>Sheet1!$B$15:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1046,7 +1085,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$13:$A$16</c:f>
+              <c:f>Sheet1!$A$15:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1066,18 +1105,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$13:$C$16</c:f>
+              <c:f>Sheet1!$C$15:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>18.5277777777778</c:v>
+                  <c:v>14.2636363636364</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.36</c:v>
+                  <c:v>11.7416666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.2722222222222</c:v>
+                  <c:v>16.49375</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>34.625</c:v>
@@ -2116,10 +2155,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:K30"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2143,269 +2182,291 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="I2" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="J2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="L2" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>15.9</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4">
-        <v>19.2</v>
+      <c r="B3" s="6">
+        <v>31.2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7">
+        <v>6</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>11.25</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K3">
         <v>23.5</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6">
+        <v>8.7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7">
         <v>12.5</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4">
-        <v>27.3</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>11.25</v>
+        <v>17</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K4">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>17.5</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4">
-        <v>16.5</v>
+      <c r="B5" s="6">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7">
+        <v>3.5</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5">
-        <v>18.75</v>
+        <v>14.9</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K5">
         <v>17.5</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>25.1</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
-        <v>42.5</v>
+      <c r="B6" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7">
+        <v>15.7</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>16.25</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6">
         <v>62.5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>12.5</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="4">
-        <v>21.3</v>
+      <c r="B7" s="6">
+        <v>7.65</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7">
+        <v>10.25</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7">
-        <v>27.5</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8">
-        <v>13.25</v>
+      <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6">
+        <v>22.35</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7">
+        <v>22.5</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H8">
-        <v>11.25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9">
-        <v>20</v>
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6">
+        <v>14.5</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="6">
+        <v>11</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10">
+        <v>33.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="6">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="6">
         <v>25</v>
       </c>
-      <c r="H9">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10">
-        <v>12.5</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>37.5</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11">
-        <v>28.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13">
-        <f>AVERAGE(B3:B11)</f>
-        <v>18.5277777777778</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14">
-        <f>AVERAGE(E3:E7)</f>
-        <v>25.36</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+    </row>
+    <row r="14" spans="5:10">
+      <c r="E14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="5" t="s">
-        <v>33</v>
+      <c r="A15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15">
-        <f>AVERAGE(H3:H11)</f>
-        <v>17.2722222222222</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+        <f>AVERAGE(B3:B13)</f>
+        <v>14.2636363636364</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="5" t="s">
-        <v>34</v>
+      <c r="A16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16">
-        <f>AVERAGE(K3:K6)</f>
-        <v>34.625</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="5:10">
+        <f>AVERAGE(E3:E8)</f>
+        <v>11.7416666666667</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <f>AVERAGE(H3:H10)</f>
+        <v>16.49375</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2413,9 +2474,18 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <f>AVERAGE(K3:K6)</f>
+        <v>34.625</v>
+      </c>
+    </row>
     <row r="19" ht="22.2" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2428,398 +2498,449 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <f>SUM(C21:C25)</f>
+        <v>370</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>38</v>
+      <c r="F20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20">
+        <f>SUM(G21:G24)</f>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21">
-        <v>119</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21">
-        <v>239</v>
+      <c r="B21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="6">
+        <v>10</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="6">
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
+      <c r="B22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="6">
+        <v>20</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="6">
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
+      <c r="B23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="6">
+        <v>20</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="6">
+        <v>286</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="9:11">
+    <row r="24" spans="2:11">
+      <c r="B24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="6">
+        <v>260</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="6">
+        <v>26</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="2:3">
+      <c r="B25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" ht="20.4" spans="1:18">
+      <c r="A27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="B27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27">
+        <f>SUM(C28:C31)</f>
+        <v>400</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27">
+        <f>SUM(G28:G31)</f>
+        <v>352</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="C28" s="6">
+        <v>100</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="6">
+        <v>165</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="B29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="6">
+        <v>30</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="6">
+        <v>33</v>
+      </c>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="6">
+        <v>190</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="6">
+        <v>80</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" ht="22.2" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C26">
+      <c r="D34">
+        <v>370</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="6">
+        <v>60</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="6">
+        <v>10</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="6">
+        <v>90</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="6">
+        <v>100</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="6">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="6">
         <v>110</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" t="s">
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G26">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" ht="20.4" spans="2:18">
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="F27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27">
+      <c r="D41">
+        <v>400</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-    </row>
-    <row r="28" spans="2:18">
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="F28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-    </row>
-    <row r="29" spans="10:18">
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-    </row>
-    <row r="30" ht="22.2" spans="1:11">
-      <c r="A30" s="1" t="s">
+      <c r="F41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41">
+        <f>SUM(G42:G47)</f>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="5" t="s">
+      <c r="B42" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="6">
+        <v>130</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" t="s">
-        <v>51</v>
-      </c>
-      <c r="G32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33">
-        <v>12</v>
-      </c>
-      <c r="F33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" t="s">
+      <c r="F42" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C34">
-        <v>63</v>
-      </c>
-      <c r="F34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" t="s">
+      <c r="G42" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="6">
+        <v>160</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C35">
-        <v>38</v>
-      </c>
-      <c r="F35" t="s">
-        <v>54</v>
-      </c>
-      <c r="G35">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" t="s">
+      <c r="G43" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="6">
+        <v>110</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="F36" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="G44" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="6:7">
+      <c r="F45" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="6:7">
+      <c r="F46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G46" s="6">
         <v>44</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39">
-        <v>9</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40">
-        <v>56</v>
-      </c>
-      <c r="F40" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41">
-        <v>27</v>
-      </c>
-      <c r="F41" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42">
-        <v>22</v>
-      </c>
-      <c r="F42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G42">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
-      <c r="F43" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
+    </row>
+    <row r="47" spans="6:7">
+      <c r="F47" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" s="6">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="E17:J17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A33:K33"/>
     <mergeCell ref="E14:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/期中测试/北上广深数据分析报告表.xlsx
+++ b/期中测试/北上广深数据分析报告表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
   <si>
     <t>北上广深广告策划薪资对比表</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>本科</t>
+  </si>
+  <si>
+    <t>硕士</t>
   </si>
   <si>
     <t>统招本科</t>
@@ -242,21 +245,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -266,6 +254,21 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -879,7 +882,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -891,18 +894,19 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2155,10 +2159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2230,7 +2234,7 @@
       <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>6</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -2256,7 +2260,7 @@
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>12.5</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -2282,7 +2286,7 @@
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>3.5</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -2308,7 +2312,7 @@
       <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>15.7</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -2334,7 +2338,7 @@
       <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>10.25</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -2354,7 +2358,7 @@
       <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>22.5</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -2417,14 +2421,14 @@
       </c>
     </row>
     <row r="14" spans="5:10">
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
@@ -2437,12 +2441,12 @@
       <c r="D15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
@@ -2452,12 +2456,12 @@
         <f>AVERAGE(E3:E8)</f>
         <v>11.7416666666667</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
@@ -2509,8 +2513,8 @@
         <v>40</v>
       </c>
       <c r="D20">
-        <f>SUM(C21:C25)</f>
-        <v>370</v>
+        <f>SUM(C21:C26)</f>
+        <v>375</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>1</v>
@@ -2522,84 +2526,104 @@
         <v>40</v>
       </c>
       <c r="H20">
-        <f>SUM(G21:G24)</f>
-        <v>429</v>
+        <f>SUM(G21:G26)</f>
+        <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="6">
-        <v>10</v>
+      <c r="C21" s="10">
+        <v>1</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="10">
+        <v>72</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="6">
-        <v>20</v>
-      </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="10">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="10">
+        <v>13</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="6">
-        <v>20</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="6">
-        <v>286</v>
+      <c r="G23" s="10">
+        <v>21</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="6">
-        <v>260</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="6">
-        <v>26</v>
+      <c r="C24" s="10">
+        <v>220</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="10">
+        <v>279</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="5" t="s">
+    <row r="25" spans="2:7">
+      <c r="B25" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="6">
-        <v>60</v>
+      <c r="C25" s="10">
+        <v>2</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="10">
+        <v>67</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="10">
+        <v>80</v>
       </c>
     </row>
     <row r="27" ht="20.4" spans="1:18">
@@ -2613,8 +2637,8 @@
         <v>40</v>
       </c>
       <c r="D27">
-        <f>SUM(C28:C31)</f>
-        <v>400</v>
+        <f>SUM(C28:C33)</f>
+        <v>396</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>1</v>
@@ -2626,309 +2650,358 @@
         <v>40</v>
       </c>
       <c r="H27">
-        <f>SUM(G28:G31)</f>
-        <v>352</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
+        <f>SUM(G28:G32)</f>
+        <v>397</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="10">
+        <v>2</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="6">
-        <v>100</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="G28" s="10">
+        <v>132</v>
+      </c>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="B29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="10">
+        <v>137</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="10">
+        <v>17</v>
+      </c>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="10">
+        <v>25</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="10">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="10">
+        <v>183</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="10">
+        <v>2</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" ht="22.2" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37">
+        <f>SUM(C38:C42)</f>
+        <v>375</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37">
+        <f>SUM(G38:G42)</f>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="10">
+        <v>102</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="10">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="10">
+        <v>10</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="10">
+        <v>154</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="10">
+        <v>73</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="10">
+        <v>36</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44">
+        <f>SUM(C45:C50)</f>
+        <v>396</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44">
+        <f>SUM(G45:G50)</f>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="6">
-        <v>165</v>
-      </c>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-    </row>
-    <row r="29" spans="2:18">
-      <c r="B29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="6">
-        <v>30</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="6">
-        <v>33</v>
-      </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="6">
-        <v>190</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="6">
-        <v>80</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" s="6">
+      <c r="B45" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="10">
+        <v>143</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="10">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" ht="22.2" spans="1:11">
-      <c r="A33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="C46" s="10">
+        <v>8</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="10">
+        <v>120</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" s="10">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="10">
+        <v>94</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" s="10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="10">
+        <v>3</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="10">
+        <v>28</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" s="10">
         <v>40</v>
-      </c>
-      <c r="D34">
-        <v>370</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H34">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="6">
-        <v>60</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G35" s="6">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="6">
-        <v>10</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36" s="6">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="6">
-        <v>90</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="6">
-        <v>100</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" s="6">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="6">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41">
-        <v>400</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H41">
-        <f>SUM(G42:G47)</f>
-        <v>352</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="6">
-        <v>130</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G42" s="6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="6">
-        <v>160</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="6">
-        <v>110</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="6:7">
-      <c r="F45" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="6:7">
-      <c r="F46" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G46" s="6">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="6:7">
-      <c r="F47" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" s="6">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2940,7 +3013,7 @@
     <mergeCell ref="E17:J17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="A36:K36"/>
     <mergeCell ref="E14:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
